--- a/data/drawings_database/figure_captions.xlsx
+++ b/data/drawings_database/figure_captions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sumailsyr-my.sharepoint.com/personal/wbgearty_syr_edu/Documents/AMNH/Schizomida/data/drawings_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{9D608BA6-62F0-4E11-8111-4D4F1DFBA61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0744897C-4222-4836-A49D-291194BED19F}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{9D608BA6-62F0-4E11-8111-4D4F1DFBA61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F63B30EA-E23C-4FF5-A1FA-53908D7FC023}"/>
   <bookViews>
-    <workbookView xWindow="72084" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{57A6251D-BFCE-41E2-8D9E-CB6431C178B7}"/>
+    <workbookView xWindow="41364" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{57A6251D-BFCE-41E2-8D9E-CB6431C178B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>Anterodorsal-margin--leg-IV-</t>
   </si>
   <si>
-    <t>Flagellum-dorsal-shape--male-</t>
-  </si>
-  <si>
     <t>Accessory-tooth--movable-finger-</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>Mesal-spur--trochanter-</t>
+  </si>
+  <si>
+    <t>Dorsal-shape--male-</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -544,7 +544,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>

--- a/data/drawings_database/figure_captions.xlsx
+++ b/data/drawings_database/figure_captions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sumailsyr-my.sharepoint.com/personal/wbgearty_syr_edu/Documents/AMNH/Schizomida/data/drawings_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{9D608BA6-62F0-4E11-8111-4D4F1DFBA61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F63B30EA-E23C-4FF5-A1FA-53908D7FC023}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{9D608BA6-62F0-4E11-8111-4D4F1DFBA61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72BDDD21-A249-42D8-A1E0-DA1C1E288D29}"/>
   <bookViews>
     <workbookView xWindow="41364" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{57A6251D-BFCE-41E2-8D9E-CB6431C178B7}"/>
   </bookViews>
@@ -584,18 +584,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
